--- a/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C2AF90-D1F5-4E76-8343-DA2930F9CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{570F8A61-B604-4154-B360-2D60951E37A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{797E8692-FE2D-432F-822B-49ABC45DCF0E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{63AC43D7-EC6D-43D5-B6BA-596B09ED7736}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>36,65%</t>
   </si>
   <si>
@@ -101,9 +200,6 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>63,35%</t>
   </si>
   <si>
@@ -131,64 +227,61 @@
     <t>81,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,99 +341,6 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
     <t>32,62%</t>
   </si>
   <si>
@@ -398,6 +398,84 @@
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
   </si>
   <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
     <t>48,94%</t>
   </si>
   <si>
@@ -452,58 +530,58 @@
     <t>64,66%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>38,64%</t>
@@ -554,84 +632,6 @@
     <t>76,53%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
     <t>38,37%</t>
   </si>
   <si>
@@ -689,6 +689,66 @@
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
     <t>40,86%</t>
   </si>
   <si>
@@ -743,52 +803,58 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>45,27%</t>
@@ -845,72 +911,6 @@
     <t>81,1%</t>
   </si>
   <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
     <t>43,01%</t>
   </si>
   <si>
@@ -962,6 +962,78 @@
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
   </si>
   <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
     <t>37,97%</t>
   </si>
   <si>
@@ -1016,58 +1088,58 @@
     <t>81,84%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>39,86%</t>
@@ -1116,78 +1188,6 @@
   </si>
   <si>
     <t>71,86%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
   </si>
   <si>
     <t>32,2%</t>
@@ -1633,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B9586-1F29-4F90-81C6-940008F8BF65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A49E9-03B5-4EC1-88B5-1091B7677F93}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>10148</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1766,85 +1766,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1917</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>929</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12064</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>17538</v>
+        <v>2258</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1525</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3783</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13109</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7">
-        <v>30648</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,54 +1853,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>27686</v>
+        <v>2258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>15026</v>
+        <v>2454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>42712</v>
+        <v>4712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1912,13 +1912,13 @@
         <v>5917</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1927,13 +1927,13 @@
         <v>2648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1942,19 +1942,19 @@
         <v>8565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -1963,13 +1963,13 @@
         <v>8048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1978,13 +1978,13 @@
         <v>4664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -1993,13 +1993,13 @@
         <v>12712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2014,13 @@
         <v>13965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -2029,13 +2029,13 @@
         <v>7312</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -2044,117 +2044,117 @@
         <v>21277</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>5925</v>
+        <v>10148</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1917</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12064</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8662</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14587</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>16290</v>
+        <v>17538</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13109</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="7">
+        <v>48</v>
+      </c>
+      <c r="N11" s="7">
+        <v>30648</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13394</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29684</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,153 +2163,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>22215</v>
+        <v>27686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>22056</v>
+        <v>15026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>44271</v>
+        <v>42712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>4592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>929</v>
+        <v>4811</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>929</v>
+        <v>9403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>2258</v>
+        <v>10774</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3058</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1525</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>21</v>
+      </c>
+      <c r="N14" s="7">
+        <v>13833</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3783</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2318,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>2258</v>
+        <v>15366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>2454</v>
+        <v>7869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>4712</v>
+        <v>23236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>4592</v>
+        <v>5925</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -2386,10 +2386,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>4811</v>
+        <v>8662</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -2401,10 +2401,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>9403</v>
+        <v>14587</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -2419,13 +2419,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>10774</v>
+        <v>16290</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2437,10 +2437,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>3058</v>
+        <v>13394</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2452,10 +2452,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>13833</v>
+        <v>29684</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2473,49 +2473,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>15366</v>
+        <v>22215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>7869</v>
+        <v>22056</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>23236</v>
+        <v>44271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>81</v>
@@ -2634,13 +2634,13 @@
         <v>81490</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -2649,13 +2649,13 @@
         <v>54717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>202</v>
@@ -2664,13 +2664,13 @@
         <v>136207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD6BF8-AC9F-47AB-8289-6E44ECDE47E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7BAC1-1C86-4B80-8028-7225BC9689CE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2809,100 +2809,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>15051</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1001</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11087</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="7">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26138</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>15703</v>
+        <v>3682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>16719</v>
+        <v>2745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>32422</v>
+        <v>6427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,54 +2911,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>30754</v>
+        <v>4683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>27806</v>
+        <v>2745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>58560</v>
+        <v>7428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2970,13 +2970,13 @@
         <v>4154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2985,13 +2985,13 @@
         <v>3532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3000,19 +3000,19 @@
         <v>7686</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -3021,13 +3021,13 @@
         <v>7312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3036,13 +3036,13 @@
         <v>7788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -3051,13 +3051,13 @@
         <v>15100</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3072,13 @@
         <v>11466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3087,13 +3087,13 @@
         <v>11320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3102,117 +3102,117 @@
         <v>22786</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>10185</v>
+        <v>15051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>5744</v>
+        <v>11087</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>15929</v>
+        <v>26138</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>16175</v>
+        <v>15703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>15384</v>
+        <v>16719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>31559</v>
+        <v>32422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,153 +3221,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>26360</v>
+        <v>30754</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>21128</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N12" s="7">
-        <v>47488</v>
+        <v>58560</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>1001</v>
+        <v>7426</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8331</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="7">
+        <v>25</v>
+      </c>
+      <c r="N13" s="7">
+        <v>15757</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1001</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>3682</v>
+        <v>17867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="7">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10912</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2745</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>6427</v>
+        <v>28779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,49 +3376,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>4683</v>
+        <v>25293</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
       <c r="I15" s="7">
-        <v>2745</v>
+        <v>19243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>7428</v>
+        <v>44536</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,91 +3429,91 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>7426</v>
+        <v>10185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>8331</v>
+        <v>5744</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>15757</v>
+        <v>15929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>17867</v>
+        <v>16175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>10912</v>
+        <v>15384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>28779</v>
+        <v>31559</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>194</v>
@@ -3531,49 +3531,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>25293</v>
+        <v>26360</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>19243</v>
+        <v>21128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>44536</v>
+        <v>47488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>86</v>
@@ -3692,13 +3692,13 @@
         <v>98555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>121</v>
@@ -3707,13 +3707,13 @@
         <v>82242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>260</v>
@@ -3722,13 +3722,13 @@
         <v>180798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47990C3D-355A-47BD-9FFB-B1AA2AB56CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85854EF-B701-462F-9B37-F475532A553A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,100 +3867,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>8188</v>
+        <v>509</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1099</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7">
-        <v>9228</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>17415</v>
+        <v>1609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>11853</v>
+        <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>10368</v>
+        <v>1133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>22221</v>
+        <v>1658</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,54 +3969,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>20041</v>
+        <v>1034</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>19596</v>
+        <v>2232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>39636</v>
+        <v>3267</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4028,13 +4028,13 @@
         <v>2860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4043,13 +4043,13 @@
         <v>4454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4058,19 +4058,19 @@
         <v>7314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -4079,13 +4079,13 @@
         <v>5815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4094,13 +4094,13 @@
         <v>1482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4109,13 +4109,13 @@
         <v>7298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4130,13 @@
         <v>8675</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4145,13 +4145,13 @@
         <v>5936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4160,117 +4160,117 @@
         <v>14612</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>5717</v>
+        <v>8188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>2159</v>
+        <v>9228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>7875</v>
+        <v>17415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>6912</v>
+        <v>11853</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>8191</v>
+        <v>10368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>15103</v>
+        <v>22221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,153 +4279,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>12629</v>
+        <v>20041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>10350</v>
+        <v>19596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>22978</v>
+        <v>39636</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>509</v>
+        <v>4853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>1099</v>
+        <v>4168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>1609</v>
+        <v>9021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>525</v>
+        <v>4215</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4840</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="7">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9056</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1133</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1658</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,49 +4434,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>1034</v>
+        <v>9068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>2232</v>
+        <v>9008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>3267</v>
+        <v>18077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,10 +4487,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4853</v>
+        <v>5717</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>272</v>
@@ -4502,10 +4502,10 @@
         <v>274</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>4168</v>
+        <v>2159</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>275</v>
@@ -4517,10 +4517,10 @@
         <v>277</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>9021</v>
+        <v>7875</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>278</v>
@@ -4535,13 +4535,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>4215</v>
+        <v>6912</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>281</v>
@@ -4553,10 +4553,10 @@
         <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>4840</v>
+        <v>8191</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>284</v>
@@ -4568,10 +4568,10 @@
         <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>9056</v>
+        <v>15103</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4589,49 +4589,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>9068</v>
+        <v>12629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>9008</v>
+        <v>10350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>18077</v>
+        <v>22978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4684,13 @@
         <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>43</v>
@@ -4732,7 +4732,7 @@
         <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>305</v>
@@ -4750,13 +4750,13 @@
         <v>51447</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -4765,13 +4765,13 @@
         <v>47123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -4780,13 +4780,13 @@
         <v>98570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E899FEAA-9241-4547-91C8-DB07580D2445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC2347B-D279-4D3B-9AC3-BAB25E04DE3D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,100 +4925,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>9617</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1139</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3002</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12619</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>15711</v>
+        <v>1364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>15454</v>
+        <v>1468</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>31165</v>
+        <v>2832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,54 +5027,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>25328</v>
+        <v>2503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>18456</v>
+        <v>1468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>43784</v>
+        <v>3971</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5086,13 +5086,13 @@
         <v>2137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5101,13 +5101,13 @@
         <v>2654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5116,19 +5116,19 @@
         <v>4791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -5137,13 +5137,13 @@
         <v>14118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -5152,13 +5152,13 @@
         <v>7855</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5167,13 +5167,13 @@
         <v>21973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5188,13 @@
         <v>16255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5203,13 +5203,13 @@
         <v>10509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -5218,117 +5218,117 @@
         <v>26764</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>10500</v>
+        <v>9617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>6489</v>
+        <v>3002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>16988</v>
+        <v>12619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>15839</v>
+        <v>15711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>9524</v>
+        <v>15454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>25364</v>
+        <v>31165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,153 +5337,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26339</v>
+        <v>25328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16013</v>
+        <v>18456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>42352</v>
+        <v>43784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>1139</v>
+        <v>5447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>1139</v>
+        <v>9367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>1364</v>
+        <v>13679</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="7">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10509</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1468</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N14" s="7">
-        <v>2832</v>
+        <v>24189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,49 +5492,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>2503</v>
+        <v>19126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7">
-        <v>1468</v>
+        <v>14430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N15" s="7">
-        <v>3971</v>
+        <v>33556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,76 +5545,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>5447</v>
+        <v>10500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>3921</v>
+        <v>6489</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>9367</v>
+        <v>16988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>13679</v>
+        <v>15839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>376</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>10509</v>
+        <v>9524</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>377</v>
@@ -5626,10 +5626,10 @@
         <v>379</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>24189</v>
+        <v>25364</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>380</v>
@@ -5647,49 +5647,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>19126</v>
+        <v>26339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>14430</v>
+        <v>16013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>33556</v>
+        <v>42352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5748,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>77</v>
@@ -5808,13 +5808,13 @@
         <v>89551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -5823,13 +5823,13 @@
         <v>60876</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>209</v>
@@ -5838,13 +5838,13 @@
         <v>150428</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{570F8A61-B604-4154-B360-2D60951E37A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11225C19-40A5-4DC0-AC66-13895B047486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{63AC43D7-EC6D-43D5-B6BA-596B09ED7736}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20ACF805-E42A-4AC5-A423-E0E51A79FB13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
   <si>
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
   </si>
@@ -71,12 +71,33 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -86,1162 +107,1138 @@
     <t>37,85%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>77,47%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>36,21%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>40,25%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1249,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1348,39 +1345,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1432,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1543,13 +1540,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1558,6 +1548,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1622,19 +1619,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A49E9-03B5-4EC1-88B5-1091B7677F93}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FDF6B0-B1DF-4700-82D8-6600DDCFD1C9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1751,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2258</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1766,34 +1783,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>929</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>929</v>
+        <v>3783</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,10 +1819,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2258</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
@@ -1817,34 +1834,34 @@
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1525</v>
+        <v>929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>3783</v>
+        <v>929</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1876,13 @@
         <v>2258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1874,13 +1891,13 @@
         <v>2454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1889,13 +1906,13 @@
         <v>4712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>5917</v>
+        <v>8048</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -1921,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2648</v>
+        <v>4664</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
@@ -1936,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>8565</v>
+        <v>12712</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1957,10 +1974,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>8048</v>
+        <v>5917</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1972,10 +1989,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4664</v>
+        <v>2648</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1987,10 +2004,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>12712</v>
+        <v>8565</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -2014,13 +2031,13 @@
         <v>13965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -2029,13 +2046,13 @@
         <v>7312</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -2044,13 +2061,13 @@
         <v>21277</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>10148</v>
+        <v>17538</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -2076,10 +2093,10 @@
         <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>1917</v>
+        <v>13109</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -2091,10 +2108,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>12064</v>
+        <v>30648</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2112,10 +2129,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>17538</v>
+        <v>10148</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -2127,10 +2144,10 @@
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>13109</v>
+        <v>1917</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -2142,10 +2159,10 @@
         <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>30648</v>
+        <v>12064</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -2169,13 +2186,13 @@
         <v>27686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -2184,13 +2201,13 @@
         <v>15026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -2199,13 +2216,13 @@
         <v>42712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>4592</v>
+        <v>10774</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2231,10 +2248,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4811</v>
+        <v>3058</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -2246,10 +2263,10 @@
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>9403</v>
+        <v>13833</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
@@ -2267,10 +2284,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>10774</v>
+        <v>4592</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -2282,10 +2299,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>3058</v>
+        <v>4811</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -2297,10 +2314,10 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>13833</v>
+        <v>9403</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -2324,13 +2341,13 @@
         <v>15366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -2339,13 +2356,13 @@
         <v>7869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -2354,13 +2371,13 @@
         <v>23236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>5925</v>
+        <v>16290</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -2386,10 +2403,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>8662</v>
+        <v>13394</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -2401,10 +2418,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>14587</v>
+        <v>29684</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -2422,10 +2439,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>16290</v>
+        <v>5925</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2437,10 +2454,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>13394</v>
+        <v>8662</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2452,10 +2469,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>29684</v>
+        <v>14587</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2479,13 +2496,13 @@
         <v>22215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -2494,13 +2511,13 @@
         <v>22056</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -2509,13 +2526,13 @@
         <v>44271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>26582</v>
+        <v>54908</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>100</v>
@@ -2538,37 +2555,37 @@
         <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="7">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7">
+        <v>35751</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18966</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>135</v>
+      </c>
+      <c r="N19" s="7">
+        <v>90659</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="7">
-        <v>67</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45548</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,49 +2594,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>54908</v>
+        <v>26582</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7">
+        <v>18966</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="7">
-        <v>54</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35751</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>67</v>
+      </c>
+      <c r="N20" s="7">
+        <v>45548</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="7">
-        <v>135</v>
-      </c>
-      <c r="N20" s="7">
-        <v>90659</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2651,13 @@
         <v>81490</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -2649,13 +2666,13 @@
         <v>54717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>202</v>
@@ -2664,13 +2681,18 @@
         <v>136207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2691,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7BAC1-1C86-4B80-8028-7225BC9689CE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCCA316-C3C1-4600-8ACD-832771591EC1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2708,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2809,25 +2831,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1001</v>
+        <v>3682</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2839,19 +2861,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>1001</v>
+        <v>6427</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,25 +2882,25 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3682</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -2890,19 +2912,19 @@
         <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>6427</v>
+        <v>1001</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2939,13 @@
         <v>4683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2932,13 +2954,13 @@
         <v>2745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2947,13 +2969,13 @@
         <v>7428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,49 +2986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>4154</v>
+        <v>7312</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7788</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3532</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>20</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15100</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="M7" s="7">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7686</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,49 +3037,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7312</v>
+        <v>4154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3532</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>11</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7686</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7788</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="7">
-        <v>20</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15100</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3094,13 @@
         <v>11466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3087,13 +3109,13 @@
         <v>11320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3102,13 +3124,13 @@
         <v>22786</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,49 +3141,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>15051</v>
+        <v>15703</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16719</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>49</v>
+      </c>
+      <c r="N10" s="7">
+        <v>32422</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11087</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26138</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,49 +3192,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>15703</v>
+        <v>15051</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11087</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>39</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26138</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16719</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="7">
-        <v>49</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32422</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3249,13 @@
         <v>30754</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -3242,13 +3264,13 @@
         <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -3257,13 +3279,13 @@
         <v>58560</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,49 +3296,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>7426</v>
+        <v>17867</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10912</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>44</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28779</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8331</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="7">
-        <v>25</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15757</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,49 +3347,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>17867</v>
+        <v>7426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8331</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>25</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15757</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10912</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M14" s="7">
-        <v>44</v>
-      </c>
-      <c r="N14" s="7">
-        <v>28779</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3404,13 @@
         <v>25293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -3397,13 +3419,13 @@
         <v>19243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>69</v>
@@ -3412,13 +3434,13 @@
         <v>44536</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +3451,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>10185</v>
+        <v>16175</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15384</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>43</v>
+      </c>
+      <c r="N16" s="7">
+        <v>31559</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5744</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>15929</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,49 +3502,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>16175</v>
+        <v>10185</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5744</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>21</v>
+      </c>
+      <c r="N17" s="7">
+        <v>15929</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15384</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7">
-        <v>43</v>
-      </c>
-      <c r="N17" s="7">
-        <v>31559</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3559,13 @@
         <v>26360</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3552,13 +3574,13 @@
         <v>21128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -3567,13 +3589,13 @@
         <v>47488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,49 +3606,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7">
-        <v>37817</v>
+        <v>60738</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="7">
+        <v>77</v>
+      </c>
+      <c r="I19" s="7">
+        <v>53548</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="7">
-        <v>44</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28694</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>163</v>
+      </c>
+      <c r="N19" s="7">
+        <v>114287</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="M19" s="7">
-        <v>97</v>
-      </c>
-      <c r="N19" s="7">
-        <v>66511</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,49 +3657,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>60738</v>
+        <v>37817</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="7">
+        <v>44</v>
+      </c>
+      <c r="I20" s="7">
+        <v>28694</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="7">
-        <v>77</v>
-      </c>
-      <c r="I20" s="7">
-        <v>53548</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>97</v>
+      </c>
+      <c r="N20" s="7">
+        <v>66511</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>163</v>
-      </c>
-      <c r="N20" s="7">
-        <v>114287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3714,13 @@
         <v>98555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>121</v>
@@ -3707,13 +3729,13 @@
         <v>82242</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>260</v>
@@ -3722,13 +3744,18 @@
         <v>180798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3749,8 +3776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85854EF-B701-462F-9B37-F475532A553A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123630D-0262-4525-BF53-BE3AF589FEF4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3766,7 +3793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3870,46 +3897,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1099</v>
+        <v>1133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1609</v>
+        <v>1658</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3948,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1133</v>
+        <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +4002,13 @@
         <v>1034</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3990,13 +4017,13 @@
         <v>2232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4005,13 +4032,13 @@
         <v>3267</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,49 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2860</v>
+        <v>5815</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1482</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7298</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4454</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7314</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +4100,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>5815</v>
+        <v>2860</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4454</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7">
+        <v>11</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7314</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1482</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7298</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4157,13 @@
         <v>8675</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4145,13 +4172,13 @@
         <v>5936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4160,13 +4187,13 @@
         <v>14612</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,49 +4204,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>8188</v>
+        <v>11853</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10368</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9228</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>33</v>
+      </c>
+      <c r="N10" s="7">
+        <v>22221</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="M10" s="7">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7">
-        <v>17415</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,49 +4255,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>11853</v>
+        <v>8188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9228</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10368</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7">
+        <v>17415</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22221</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4312,13 @@
         <v>20041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -4300,13 +4327,13 @@
         <v>19596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -4315,13 +4342,13 @@
         <v>39636</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,46 +4362,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4853</v>
+        <v>4215</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4840</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9056</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4168</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M13" s="7">
-        <v>14</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9021</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,46 +4413,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>4215</v>
+        <v>4853</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4168</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>14</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9021</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4840</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9056</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4467,13 @@
         <v>9068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -4455,13 +4482,13 @@
         <v>9008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -4470,13 +4497,13 @@
         <v>18077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5717</v>
+        <v>6912</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8191</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15103</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2159</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7875</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,49 +4565,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>6912</v>
+        <v>5717</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2159</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>12</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7875</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8191</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="7">
-        <v>21</v>
-      </c>
-      <c r="N17" s="7">
-        <v>15103</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4622,13 @@
         <v>12629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -4610,13 +4637,13 @@
         <v>10350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4625,13 +4652,13 @@
         <v>22978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,49 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>22127</v>
+        <v>29320</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="7">
+        <v>38</v>
+      </c>
+      <c r="I19" s="7">
+        <v>26016</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>81</v>
+      </c>
+      <c r="N19" s="7">
+        <v>55336</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H19" s="7">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21107</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>43234</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +4720,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>29320</v>
+        <v>22127</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="7">
+        <v>34</v>
+      </c>
+      <c r="I20" s="7">
+        <v>21107</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>65</v>
+      </c>
+      <c r="N20" s="7">
+        <v>43234</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="7">
-        <v>38</v>
-      </c>
-      <c r="I20" s="7">
-        <v>26016</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="7">
-        <v>81</v>
-      </c>
-      <c r="N20" s="7">
-        <v>55336</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4777,13 @@
         <v>51447</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -4765,13 +4792,13 @@
         <v>47123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -4780,13 +4807,18 @@
         <v>98570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4807,8 +4839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC2347B-D279-4D3B-9AC3-BAB25E04DE3D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC712D-639E-4F6E-8F2D-8FD11FCCDAA7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4824,7 +4856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4928,22 +4960,22 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1139</v>
+        <v>1364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -4955,19 +4987,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1139</v>
+        <v>2832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,22 +5011,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1364</v>
+        <v>1139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1468</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -5006,19 +5038,19 @@
         <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2832</v>
+        <v>1139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5065,13 @@
         <v>2503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5048,13 +5080,13 @@
         <v>1468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5063,13 +5095,13 @@
         <v>3971</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,49 +5112,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>2137</v>
+        <v>14118</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7855</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2654</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>23</v>
+      </c>
+      <c r="N7" s="7">
+        <v>21973</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4791</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +5163,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>14118</v>
+        <v>2137</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2654</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7855</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4791</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="M8" s="7">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7">
-        <v>21973</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5220,13 @@
         <v>16255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5203,13 +5235,13 @@
         <v>10509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -5218,13 +5250,13 @@
         <v>26764</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,49 +5267,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>9617</v>
+        <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15454</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3002</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7">
+        <v>31165</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>12619</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +5318,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>15711</v>
+        <v>9617</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3002</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15454</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12619</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="M11" s="7">
-        <v>45</v>
-      </c>
-      <c r="N11" s="7">
-        <v>31165</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5375,13 @@
         <v>25328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -5358,13 +5390,13 @@
         <v>18456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5373,13 +5405,13 @@
         <v>43784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,49 +5422,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>5447</v>
+        <v>13679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10509</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3921</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>32</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24189</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9367</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +5473,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>13679</v>
+        <v>5447</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3921</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10509</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9367</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="M14" s="7">
-        <v>32</v>
-      </c>
-      <c r="N14" s="7">
-        <v>24189</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5530,13 @@
         <v>19126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -5513,13 +5545,13 @@
         <v>14430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>47</v>
@@ -5528,13 +5560,13 @@
         <v>33556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,49 +5577,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15839</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
-        <v>10500</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>9524</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6489</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>36</v>
+      </c>
+      <c r="N16" s="7">
+        <v>25364</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="M16" s="7">
-        <v>23</v>
-      </c>
-      <c r="N16" s="7">
-        <v>16988</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +5628,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>15839</v>
+        <v>10500</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6489</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9524</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>16988</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M17" s="7">
-        <v>36</v>
-      </c>
-      <c r="N17" s="7">
-        <v>25364</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5685,13 @@
         <v>26339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -5668,13 +5700,13 @@
         <v>16013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -5683,13 +5715,13 @@
         <v>42352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,49 +5732,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>28839</v>
+        <v>60712</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>64</v>
+      </c>
+      <c r="I19" s="7">
+        <v>44810</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16066</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>141</v>
+      </c>
+      <c r="N19" s="7">
+        <v>105523</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="M19" s="7">
-        <v>68</v>
-      </c>
-      <c r="N19" s="7">
-        <v>44905</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5783,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>60712</v>
+        <v>28839</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16066</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H20" s="7">
-        <v>64</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44810</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>68</v>
+      </c>
+      <c r="N20" s="7">
+        <v>44905</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="M20" s="7">
-        <v>141</v>
-      </c>
-      <c r="N20" s="7">
-        <v>105523</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5840,13 @@
         <v>89551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -5823,13 +5855,13 @@
         <v>60876</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>209</v>
@@ -5838,13 +5870,18 @@
         <v>150428</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11225C19-40A5-4DC0-AC66-13895B047486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E29E7D1-2925-4A48-8566-339303DE26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20ACF805-E42A-4AC5-A423-E0E51A79FB13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EECC0219-775A-4162-B261-2AFFFF8C5851}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -92,7 +92,7 @@
     <t>80,29%</t>
   </si>
   <si>
-    <t>22,53%</t>
+    <t>26,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,178 +110,178 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>59,75%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>36,21%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>40,25%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>71,75%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>36,65%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>61,14%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -290,853 +290,859 @@
     <t>73,33%</t>
   </si>
   <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>42,77%</t>
+    <t>43,75%</t>
   </si>
   <si>
     <t>76,28%</t>
@@ -1145,19 +1151,16 @@
     <t>59,48%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>39,86%</t>
@@ -1166,79 +1169,70 @@
     <t>23,72%</t>
   </si>
   <si>
-    <t>57,23%</t>
+    <t>56,25%</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>82,52%</t>
   </si>
   <si>
     <t>70,15%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>17,48%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FDF6B0-B1DF-4700-82D8-6600DDCFD1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6CAD00-D9F3-47D0-B54A-924C139690DC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2555,7 +2549,7 @@
         <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2564,13 +2558,13 @@
         <v>35751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -2579,13 +2573,13 @@
         <v>90659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2594,13 @@
         <v>26582</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2615,13 +2609,13 @@
         <v>18966</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2630,13 +2624,13 @@
         <v>45548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCCA316-C3C1-4600-8ACD-832771591EC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195503E2-9EA3-4A5C-B949-697B31A792A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,10 +2831,10 @@
         <v>3682</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2867,10 +2861,10 @@
         <v>6427</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2888,13 +2882,13 @@
         <v>1001</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2995,10 +2989,10 @@
         <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3007,13 +3001,13 @@
         <v>7788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3022,13 +3016,13 @@
         <v>15100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3037,13 @@
         <v>4154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3058,13 +3052,13 @@
         <v>3532</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3073,13 +3067,13 @@
         <v>7686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3141,13 @@
         <v>15703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3162,13 +3156,13 @@
         <v>16719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3177,13 +3171,13 @@
         <v>32422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3192,13 @@
         <v>15051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3213,13 +3207,13 @@
         <v>11087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -3228,13 +3222,13 @@
         <v>26138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3296,13 @@
         <v>17867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3317,13 +3311,13 @@
         <v>10912</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3332,13 +3326,13 @@
         <v>28779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3347,13 @@
         <v>7426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3368,13 +3362,13 @@
         <v>8331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -3383,13 +3377,13 @@
         <v>15757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3451,13 @@
         <v>16175</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3472,13 +3466,13 @@
         <v>15384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3487,13 +3481,13 @@
         <v>31559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3502,13 @@
         <v>10185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3523,13 +3517,13 @@
         <v>5744</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3538,13 +3532,13 @@
         <v>15929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3606,13 @@
         <v>60738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3627,13 +3621,13 @@
         <v>53548</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -3642,13 +3636,13 @@
         <v>114287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3657,13 @@
         <v>37817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3678,13 +3672,13 @@
         <v>28694</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3693,13 +3687,13 @@
         <v>66511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123630D-0262-4525-BF53-BE3AF589FEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6898E647-722F-4A49-B480-A92A606AEA40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3793,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,7 +3894,7 @@
         <v>525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -3915,7 +3909,7 @@
         <v>1133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
@@ -3930,7 +3924,7 @@
         <v>1658</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
@@ -3951,7 +3945,7 @@
         <v>509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -3966,7 +3960,7 @@
         <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
@@ -3981,7 +3975,7 @@
         <v>1609</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
@@ -4055,13 +4049,13 @@
         <v>5815</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4070,13 +4064,13 @@
         <v>1482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4085,13 +4079,13 @@
         <v>7298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4100,13 @@
         <v>2860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4121,10 +4115,10 @@
         <v>4454</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>11</v>
@@ -4136,13 +4130,13 @@
         <v>7314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4204,13 @@
         <v>11853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4225,13 +4219,13 @@
         <v>10368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4240,13 +4234,13 @@
         <v>22221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4255,13 @@
         <v>8188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -4276,13 +4270,13 @@
         <v>9228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4291,13 +4285,13 @@
         <v>17415</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4359,13 @@
         <v>4215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4380,13 +4374,13 @@
         <v>4840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4395,13 +4389,13 @@
         <v>9056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4410,13 @@
         <v>4853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4431,13 +4425,13 @@
         <v>4168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4446,13 +4440,13 @@
         <v>9021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4514,13 @@
         <v>6912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4535,13 +4529,13 @@
         <v>8191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4550,13 +4544,13 @@
         <v>15103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4565,13 @@
         <v>5717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4586,13 +4580,13 @@
         <v>2159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -4601,13 +4595,13 @@
         <v>7875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4669,13 @@
         <v>29320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -4690,13 +4684,13 @@
         <v>26016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4705,13 +4699,13 @@
         <v>55336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4720,13 @@
         <v>22127</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -4741,13 +4735,13 @@
         <v>21107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -4756,13 +4750,13 @@
         <v>43234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,7 +4812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC712D-639E-4F6E-8F2D-8FD11FCCDAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4114116-693E-478D-BD39-3847E689C0EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,7 +4957,7 @@
         <v>1364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -4993,10 +4987,10 @@
         <v>2832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -5014,7 +5008,7 @@
         <v>1139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -5044,13 +5038,13 @@
         <v>1139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5112,13 @@
         <v>14118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5133,13 +5127,13 @@
         <v>7855</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5148,13 +5142,13 @@
         <v>21973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5163,13 @@
         <v>2137</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5184,13 +5178,13 @@
         <v>2654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5199,13 +5193,13 @@
         <v>4791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5267,13 @@
         <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5288,13 +5282,13 @@
         <v>15454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -5303,13 +5297,13 @@
         <v>31165</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5318,13 @@
         <v>9617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5339,13 +5333,13 @@
         <v>3002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -5354,13 +5348,13 @@
         <v>12619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5422,13 @@
         <v>13679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5443,13 +5437,13 @@
         <v>10509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5458,13 +5452,13 @@
         <v>24189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5473,13 @@
         <v>5447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5494,13 +5488,13 @@
         <v>3921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5509,13 +5503,13 @@
         <v>9367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5577,13 @@
         <v>15839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5598,13 +5592,13 @@
         <v>9524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5613,13 +5607,13 @@
         <v>25364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5628,13 @@
         <v>10500</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5649,13 +5643,13 @@
         <v>6489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5664,7 +5658,7 @@
         <v>16988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>380</v>
@@ -5756,10 +5750,10 @@
         <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5768,13 +5762,13 @@
         <v>105523</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5783,13 @@
         <v>28839</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -5804,13 +5798,13 @@
         <v>16066</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -5819,13 +5813,13 @@
         <v>44905</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
